--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -707,10 +719,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -754,28 +766,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -800,28 +812,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -967,10 +979,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1014,28 +1026,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1060,28 +1072,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1459,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1505,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1585,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1632,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1678,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1787,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1834,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1880,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1948,10 +1960,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1995,28 +2007,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2041,28 +2053,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2208,10 +2220,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2255,28 +2267,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2301,28 +2313,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2468,10 +2480,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2515,28 +2527,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2561,28 +2573,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2769,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2862,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3248,10 +3260,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3295,28 +3307,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3341,28 +3353,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3479,10 +3491,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3526,28 +3538,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3572,28 +3584,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3681,10 +3693,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3728,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3774,28 +3786,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3912,10 +3924,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3959,28 +3971,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4005,28 +4017,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4432,10 +4444,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4479,28 +4491,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4525,28 +4537,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4634,10 +4646,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4681,28 +4693,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4727,28 +4739,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4807,10 +4819,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4854,28 +4866,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4900,28 +4912,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5038,10 +5050,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5085,28 +5097,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5131,28 +5143,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5327,10 +5339,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5374,28 +5386,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5420,28 +5432,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5587,10 +5599,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5634,28 +5646,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5680,28 +5692,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5818,10 +5830,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5865,28 +5877,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5911,28 +5923,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6061,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6096,28 +6108,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6154,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6234,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6269,28 +6281,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6327,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6511,10 +6523,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6558,28 +6570,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6604,28 +6616,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6684,10 +6696,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6731,28 +6743,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6777,28 +6789,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6973,10 +6985,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7020,28 +7032,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7066,28 +7078,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7204,10 +7216,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7251,28 +7263,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7297,28 +7309,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7406,10 +7418,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7453,28 +7465,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7499,28 +7511,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7608,10 +7620,10 @@
       <c r="I259">
         <f>((C259-C258)^2+(D259- D258)^2)^.5</f>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K259" s="2" t="s">
+      <c r="J259" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L259" t="n">
@@ -7655,28 +7667,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="s" s="2">
+      <c r="A261" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C261" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D261" t="s" s="2">
+      <c r="C261" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D261" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7701,28 +7713,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C263" t="s" s="2">
+      <c r="C263" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D263" t="s" s="2">
+      <c r="D263" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I263" t="s" s="2">
+      <c r="I263" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7839,10 +7851,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7886,28 +7898,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7932,28 +7944,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8070,10 +8082,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8117,28 +8129,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8163,28 +8175,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8243,10 +8255,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
